--- a/CalibSample .xlsx
+++ b/CalibSample .xlsx
@@ -136,7 +136,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +164,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCC4125"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -390,6 +396,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -731,8 +743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,49 +1215,49 @@
         <v>27</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="5">
+      <c r="D21" s="29">
         <v>168</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="29">
         <v>129</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="29">
         <v>47</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="30">
         <v>165</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="30">
         <v>131</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="30">
         <v>69</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="29">
         <v>137</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="29">
         <v>114</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="29">
         <v>80</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="29">
         <v>189</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="29">
         <v>131</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="29">
         <v>73</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="29">
         <v>207</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="Q21" s="29">
         <v>188</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="29">
         <v>162</v>
       </c>
       <c r="S21" s="16">
@@ -1354,6 +1366,18 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
   </mergeCells>
+  <conditionalFormatting sqref="D21:R21">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
